--- a/opm_hero_property/heroes/85.xlsx
+++ b/opm_hero_property/heroes/85.xlsx
@@ -14,6 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="talent" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mechanical" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limiter" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="status" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1197,7 +1198,7 @@
         <v>11158</v>
       </c>
       <c r="D4" t="n">
-        <v>11158</v>
+        <v>11380</v>
       </c>
       <c r="E4" t="n">
         <v>247</v>
@@ -1304,7 +1305,7 @@
         <v>12470</v>
       </c>
       <c r="D5" t="n">
-        <v>12470</v>
+        <v>12943</v>
       </c>
       <c r="E5" t="n">
         <v>370</v>
@@ -1411,7 +1412,7 @@
         <v>14013</v>
       </c>
       <c r="D6" t="n">
-        <v>14013</v>
+        <v>14783</v>
       </c>
       <c r="E6" t="n">
         <v>507</v>
@@ -1518,7 +1519,7 @@
         <v>15788</v>
       </c>
       <c r="D7" t="n">
-        <v>15788</v>
+        <v>18623</v>
       </c>
       <c r="E7" t="n">
         <v>950</v>
@@ -1625,7 +1626,7 @@
         <v>17795</v>
       </c>
       <c r="D8" t="n">
-        <v>17795</v>
+        <v>23935</v>
       </c>
       <c r="E8" t="n">
         <v>1407</v>
@@ -1732,7 +1733,7 @@
         <v>20110</v>
       </c>
       <c r="D9" t="n">
-        <v>20110</v>
+        <v>31086</v>
       </c>
       <c r="E9" t="n">
         <v>1858</v>
@@ -1839,7 +1840,7 @@
         <v>21345</v>
       </c>
       <c r="D10" t="n">
-        <v>21345</v>
+        <v>37041</v>
       </c>
       <c r="E10" t="n">
         <v>2196</v>
@@ -1946,7 +1947,7 @@
         <v>22811</v>
       </c>
       <c r="D11" t="n">
-        <v>22811</v>
+        <v>44354</v>
       </c>
       <c r="E11" t="n">
         <v>2562</v>
@@ -2053,7 +2054,7 @@
         <v>25898</v>
       </c>
       <c r="D12" t="n">
-        <v>25898</v>
+        <v>57368</v>
       </c>
       <c r="E12" t="n">
         <v>3153</v>
@@ -2160,7 +2161,7 @@
         <v>26515</v>
       </c>
       <c r="D13" t="n">
-        <v>26515</v>
+        <v>59208</v>
       </c>
       <c r="E13" t="n">
         <v>3547</v>
@@ -2267,7 +2268,7 @@
         <v>27133</v>
       </c>
       <c r="D14" t="n">
-        <v>27133</v>
+        <v>61047</v>
       </c>
       <c r="E14" t="n">
         <v>3941</v>
@@ -2374,7 +2375,7 @@
         <v>27750</v>
       </c>
       <c r="D15" t="n">
-        <v>27750</v>
+        <v>62887</v>
       </c>
       <c r="E15" t="n">
         <v>4335</v>
@@ -2481,7 +2482,7 @@
         <v>28367</v>
       </c>
       <c r="D16" t="n">
-        <v>28367</v>
+        <v>64727</v>
       </c>
       <c r="E16" t="n">
         <v>4729</v>
@@ -2588,7 +2589,7 @@
         <v>28985</v>
       </c>
       <c r="D17" t="n">
-        <v>28985</v>
+        <v>66566</v>
       </c>
       <c r="E17" t="n">
         <v>5123</v>
@@ -6534,4 +6535,2652 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AK23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>战斗类型</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>品质</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>pve等级</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>等级强化</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>装备品质%</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>装备强化%</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>天赋</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>研究所核心</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>职阶</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>限制器</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>机械核心</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>HeroId</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>EnhancePeriod</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Equips</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>TalentLevel</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Skills</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>hp</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>atk</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>crit</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>crit_res</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>crit_dmg</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>precise</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>parry</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>dmg_res</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>fury</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>show_level</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>chase</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>academy</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>limiter</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>mechanical</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>aura</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>type_aura</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>81</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>85</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>81</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>3,2,1,1,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>29351.0066428</v>
+      </c>
+      <c r="U2" t="n">
+        <v>5495.082353500001</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2035.8934718</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X2" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1350</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>121</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>85</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>121</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>3,2,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>41414.6395041</v>
+      </c>
+      <c r="U3" t="n">
+        <v>7857.851185</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3149.05967</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X3" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1350</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>121</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>161</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>85</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>161</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>75395.76712480001</v>
+      </c>
+      <c r="U4" t="n">
+        <v>13710.485625</v>
+      </c>
+      <c r="V4" t="n">
+        <v>6780.494828</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X4" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1350</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>161</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>85</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>161</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>75395.76712480001</v>
+      </c>
+      <c r="U5" t="n">
+        <v>13710.485625</v>
+      </c>
+      <c r="V5" t="n">
+        <v>6780.494828</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1580</v>
+      </c>
+      <c r="X5" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>2060</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1350</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>161</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>161</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>4,3,2,2,1,1,0,0,2</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>67178.7161008</v>
+      </c>
+      <c r="U6" t="n">
+        <v>12548.604375</v>
+      </c>
+      <c r="V6" t="n">
+        <v>6076.659188000001</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1580</v>
+      </c>
+      <c r="X6" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>2060</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>240</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>240</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>5,3,3,3,0,2,1,0,0</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>276692.8861338</v>
+      </c>
+      <c r="U7" t="n">
+        <v>47639.44524</v>
+      </c>
+      <c r="V7" t="n">
+        <v>29431.4237936</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X7" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>3780</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1830</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>240</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>85</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>240</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,2,1,0,1</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>239224.7299398</v>
+      </c>
+      <c r="U8" t="n">
+        <v>42732.76404</v>
+      </c>
+      <c r="V8" t="n">
+        <v>25714.9210256</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X8" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>3780</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>240</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>85</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>240</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>10</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>251714.1153378</v>
+      </c>
+      <c r="U9" t="n">
+        <v>44368.32444</v>
+      </c>
+      <c r="V9" t="n">
+        <v>26953.7552816</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X9" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>3780</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1330</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>240</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>85</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>240</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>20</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>264203.5007358</v>
+      </c>
+      <c r="U10" t="n">
+        <v>46003.88484</v>
+      </c>
+      <c r="V10" t="n">
+        <v>28192.5895376</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X10" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>3780</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1580</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>240</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>85</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>240</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>30</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,1,0,10</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>276692.8861338</v>
+      </c>
+      <c r="U11" t="n">
+        <v>47639.44524</v>
+      </c>
+      <c r="V11" t="n">
+        <v>29431.4237936</v>
+      </c>
+      <c r="W11" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X11" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>3780</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1830</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>240</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30</v>
+      </c>
+      <c r="H12" t="n">
+        <v>25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>85</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>240</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>30</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,0,0,5</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>276692.8861338</v>
+      </c>
+      <c r="U12" t="n">
+        <v>47639.44524</v>
+      </c>
+      <c r="V12" t="n">
+        <v>29431.4237936</v>
+      </c>
+      <c r="W12" t="n">
+        <v>2460</v>
+      </c>
+      <c r="X12" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>3720</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1830</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>260</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>30</v>
+      </c>
+      <c r="H13" t="n">
+        <v>35</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>85</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>260</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>30</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,0,6</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>412269.618482</v>
+      </c>
+      <c r="U13" t="n">
+        <v>70736.812661</v>
+      </c>
+      <c r="V13" t="n">
+        <v>49932.4614916</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2620</v>
+      </c>
+      <c r="X13" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>3840</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1830</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>260</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>30</v>
+      </c>
+      <c r="H14" t="n">
+        <v>35</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>85</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>260</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>30</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>412269.618482</v>
+      </c>
+      <c r="U14" t="n">
+        <v>70736.812661</v>
+      </c>
+      <c r="V14" t="n">
+        <v>49932.4614916</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2700</v>
+      </c>
+      <c r="X14" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>3900</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1830</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>300</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>30</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+      <c r="I15" t="n">
+        <v>45</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>85</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15</v>
+      </c>
+      <c r="O15" t="n">
+        <v>300</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>30</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>1005438.0345778</v>
+      </c>
+      <c r="U15" t="n">
+        <v>171018.571302</v>
+      </c>
+      <c r="V15" t="n">
+        <v>142019.0966</v>
+      </c>
+      <c r="W15" t="n">
+        <v>3020</v>
+      </c>
+      <c r="X15" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>4140</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1830</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>400</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>30</v>
+      </c>
+      <c r="H16" t="n">
+        <v>95</v>
+      </c>
+      <c r="I16" t="n">
+        <v>85</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>85</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16</v>
+      </c>
+      <c r="O16" t="n">
+        <v>400</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>30</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>5221175.0894604</v>
+      </c>
+      <c r="U16" t="n">
+        <v>896421.5161275</v>
+      </c>
+      <c r="V16" t="n">
+        <v>708439.9492452</v>
+      </c>
+      <c r="W16" t="n">
+        <v>3660</v>
+      </c>
+      <c r="X16" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>4620</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1830</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>500</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>30</v>
+      </c>
+      <c r="H17" t="n">
+        <v>160</v>
+      </c>
+      <c r="I17" t="n">
+        <v>150</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>85</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>16</v>
+      </c>
+      <c r="O17" t="n">
+        <v>500</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>30</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>8540774.058678199</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1464637.1365725</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1152496.7786064</v>
+      </c>
+      <c r="W17" t="n">
+        <v>4700</v>
+      </c>
+      <c r="X17" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>5400</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1830</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>161</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>85</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>256</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>224736.4014012</v>
+      </c>
+      <c r="U18" t="n">
+        <v>43504.4771675</v>
+      </c>
+      <c r="V18" t="n">
+        <v>23580.6162168</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1580</v>
+      </c>
+      <c r="X18" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>2060</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>256</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>200</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>20</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>85</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>260</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>10</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,0,0,2</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>305226.2641018</v>
+      </c>
+      <c r="U19" t="n">
+        <v>56082.584047</v>
+      </c>
+      <c r="V19" t="n">
+        <v>33483.2290072</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2460</v>
+      </c>
+      <c r="X19" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>3720</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1330</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="n">
+        <v>240</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
+      </c>
+      <c r="H20" t="n">
+        <v>25</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>85</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>264</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>20</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>395951.9900162001</v>
+      </c>
+      <c r="U20" t="n">
+        <v>69937.355639</v>
+      </c>
+      <c r="V20" t="n">
+        <v>47623.7572272</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X20" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>3780</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1580</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>264</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="n">
+        <v>260</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>30</v>
+      </c>
+      <c r="H21" t="n">
+        <v>35</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>85</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>266</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>30</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>459277.509289</v>
+      </c>
+      <c r="U21" t="n">
+        <v>81753.992703</v>
+      </c>
+      <c r="V21" t="n">
+        <v>57325.7231162</v>
+      </c>
+      <c r="W21" t="n">
+        <v>2700</v>
+      </c>
+      <c r="X21" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>3900</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1830</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>266</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15</v>
+      </c>
+      <c r="C22" t="n">
+        <v>300</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>30</v>
+      </c>
+      <c r="H22" t="n">
+        <v>55</v>
+      </c>
+      <c r="I22" t="n">
+        <v>45</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>85</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15</v>
+      </c>
+      <c r="O22" t="n">
+        <v>270</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>30</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>529685.18982</v>
+      </c>
+      <c r="U22" t="n">
+        <v>98257.602749</v>
+      </c>
+      <c r="V22" t="n">
+        <v>70452.8041198</v>
+      </c>
+      <c r="W22" t="n">
+        <v>3020</v>
+      </c>
+      <c r="X22" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>4140</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1830</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>400</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>30</v>
+      </c>
+      <c r="H23" t="n">
+        <v>95</v>
+      </c>
+      <c r="I23" t="n">
+        <v>85</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>85</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>16</v>
+      </c>
+      <c r="O23" t="n">
+        <v>280</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>30</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>674024.0463558</v>
+      </c>
+      <c r="U23" t="n">
+        <v>131969.3272175</v>
+      </c>
+      <c r="V23" t="n">
+        <v>97135.46963560001</v>
+      </c>
+      <c r="W23" t="n">
+        <v>3660</v>
+      </c>
+      <c r="X23" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>4620</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1830</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/opm_hero_property/heroes/85.xlsx
+++ b/opm_hero_property/heroes/85.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AS25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6737,6 +6737,46 @@
           <t>type_aura</t>
         </is>
       </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>基础战力</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>装备战力</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>天赋战力</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>研究所战力</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>职阶战力</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>机械核心战力</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>限制器战力</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>总战力</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6745,31 +6785,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>400</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>81</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -6781,106 +6821,130 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="O2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>3,2,1,1,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>29351.0066428</v>
+        <v>5356052.0894604</v>
       </c>
       <c r="U2" t="n">
-        <v>5495.082353500001</v>
+        <v>920149.5161275</v>
       </c>
       <c r="V2" t="n">
-        <v>2035.8934718</v>
+        <v>730279.9492452</v>
       </c>
       <c r="W2" t="n">
-        <v>1500</v>
+        <v>3660</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="Y2" t="n">
         <v>15000</v>
       </c>
       <c r="Z2" t="n">
-        <v>1200</v>
+        <v>2160</v>
       </c>
       <c r="AA2" t="n">
-        <v>2000</v>
+        <v>4620</v>
       </c>
       <c r="AB2" t="n">
-        <v>1350</v>
+        <v>1830</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="AE2" t="n">
         <v>5000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
       </c>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="n">
+        <v>11253114.8808</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>2064376.42810005</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2007622</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>15920385.95890005</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pve</t>
+          <t>pvp</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>121</v>
+        <v>400</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -6892,73 +6956,97 @@
         <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="O3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3,2,2,2,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>41414.6395041</v>
+        <v>674024.0463558</v>
       </c>
       <c r="U3" t="n">
-        <v>7857.851185</v>
+        <v>131969.3272175</v>
       </c>
       <c r="V3" t="n">
-        <v>3149.05967</v>
+        <v>97135.46963560001</v>
       </c>
       <c r="W3" t="n">
-        <v>1500</v>
+        <v>3660</v>
       </c>
       <c r="X3" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="Y3" t="n">
         <v>15000</v>
       </c>
       <c r="Z3" t="n">
-        <v>1200</v>
+        <v>2160</v>
       </c>
       <c r="AA3" t="n">
-        <v>2000</v>
+        <v>4620</v>
       </c>
       <c r="AB3" t="n">
-        <v>1350</v>
+        <v>1830</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="AE3" t="n">
         <v>5000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="n">
+        <v>1274892.692</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>234926.16256125</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>466485.6</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2159333.85456125</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6967,16 +7055,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -6985,10 +7073,10 @@
         <v>-1</v>
       </c>
       <c r="H4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -7003,10 +7091,10 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -7017,50 +7105,50 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,0,0,0,0</t>
+          <t>3,2,1,1,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>75395.76712480001</v>
+        <v>7404.2684</v>
       </c>
       <c r="U4" t="n">
-        <v>13710.485625</v>
+        <v>1639.3397</v>
       </c>
       <c r="V4" t="n">
-        <v>6780.494828</v>
+        <v>544.0063</v>
       </c>
       <c r="W4" t="n">
-        <v>1500</v>
+        <v>562</v>
       </c>
       <c r="X4" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="n">
         <v>15000</v>
       </c>
       <c r="Z4" t="n">
-        <v>1200</v>
+        <v>240</v>
       </c>
       <c r="AA4" t="n">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="AB4" t="n">
-        <v>1350</v>
+        <v>120</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="n">
         <v>5000</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -7070,6 +7158,30 @@
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>19107.098555</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>4549.950000000001</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>23657.048555</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7078,16 +7190,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -7096,13 +7208,13 @@
         <v>-1</v>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -7114,10 +7226,10 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -7128,59 +7240,83 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,1,0,0,1</t>
+          <t>3,2,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>75395.76712480001</v>
+        <v>19758.8673</v>
       </c>
       <c r="U5" t="n">
-        <v>13710.485625</v>
+        <v>4115.027</v>
       </c>
       <c r="V5" t="n">
-        <v>6780.494828</v>
+        <v>1649.595</v>
       </c>
       <c r="W5" t="n">
-        <v>1580</v>
+        <v>673</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="Y5" t="n">
         <v>15000</v>
       </c>
       <c r="Z5" t="n">
-        <v>1200</v>
+        <v>480</v>
       </c>
       <c r="AA5" t="n">
-        <v>2060</v>
+        <v>800</v>
       </c>
       <c r="AB5" t="n">
-        <v>1350</v>
+        <v>240</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="AE5" t="n">
         <v>5000</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="n">
+        <v>48531.82485</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>11988.35</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>60520.17485</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7204,16 +7340,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H6" t="n">
         <v>15</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -7235,39 +7371,39 @@
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4,3,2,2,1,1,0,0,2</t>
+          <t>4,3,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>67178.7161008</v>
+        <v>55904.8144</v>
       </c>
       <c r="U6" t="n">
-        <v>12548.604375</v>
+        <v>10569.875</v>
       </c>
       <c r="V6" t="n">
-        <v>6076.659188000001</v>
+        <v>5302.198</v>
       </c>
       <c r="W6" t="n">
-        <v>1580</v>
+        <v>1000</v>
       </c>
       <c r="X6" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Y6" t="n">
         <v>15000</v>
       </c>
       <c r="Z6" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="AA6" t="n">
-        <v>2060</v>
+        <v>1500</v>
       </c>
       <c r="AB6" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -7282,16 +7418,40 @@
         <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="n">
+        <v>115883.9904</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>9406.6</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>164297.0904</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7300,31 +7460,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>-1</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -7336,10 +7496,10 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -7350,59 +7510,83 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>5,3,3,3,0,2,1,0,0</t>
+          <t>4,3,2,2,0,1,0,0,1</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>276692.8861338</v>
+        <v>55904.8144</v>
       </c>
       <c r="U7" t="n">
-        <v>47639.44524</v>
+        <v>10569.875</v>
       </c>
       <c r="V7" t="n">
-        <v>29431.4237936</v>
+        <v>5302.198</v>
       </c>
       <c r="W7" t="n">
-        <v>2540</v>
+        <v>1080</v>
       </c>
       <c r="X7" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="Y7" t="n">
         <v>15000</v>
       </c>
       <c r="Z7" t="n">
-        <v>2160</v>
+        <v>900</v>
       </c>
       <c r="AA7" t="n">
-        <v>3780</v>
+        <v>1560</v>
       </c>
       <c r="AB7" t="n">
-        <v>1830</v>
+        <v>450</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE7" t="n">
         <v>5000</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="n">
+        <v>115883.9904</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>9589.6</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>164480.0904</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7411,31 +7595,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" t="n">
         <v>5</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15</v>
-      </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -7447,10 +7631,10 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -7461,59 +7645,83 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,2,1,0,1</t>
+          <t>4,3,2,2,1,1,0,0,2</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>239224.7299398</v>
+        <v>56178.7161008</v>
       </c>
       <c r="U8" t="n">
-        <v>42732.76404</v>
+        <v>10608.604375</v>
       </c>
       <c r="V8" t="n">
-        <v>25714.9210256</v>
+        <v>5325.659188000001</v>
       </c>
       <c r="W8" t="n">
-        <v>2540</v>
+        <v>1080</v>
       </c>
       <c r="X8" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="Y8" t="n">
         <v>15000</v>
       </c>
       <c r="Z8" t="n">
-        <v>2160</v>
+        <v>900</v>
       </c>
       <c r="AA8" t="n">
-        <v>3780</v>
+        <v>1560</v>
       </c>
       <c r="AB8" t="n">
-        <v>1080</v>
+        <v>450</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE8" t="n">
         <v>5000</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="n">
+        <v>115883.9904</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>676.0362193</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>9589.6</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>165156.1266193</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7537,7 +7745,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H9" t="n">
         <v>25</v>
@@ -7546,7 +7754,7 @@
         <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -7568,21 +7776,21 @@
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,1,0,5</t>
+          <t>5,3,3,3,0,2,1,0,0</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>251714.1153378</v>
+        <v>237186.7914</v>
       </c>
       <c r="U9" t="n">
-        <v>44368.32444</v>
+        <v>42726.208</v>
       </c>
       <c r="V9" t="n">
-        <v>26953.7552816</v>
+        <v>25718.0376</v>
       </c>
       <c r="W9" t="n">
         <v>2540</v>
@@ -7600,7 +7808,7 @@
         <v>3780</v>
       </c>
       <c r="AB9" t="n">
-        <v>1330</v>
+        <v>1080</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -7618,13 +7826,37 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="n">
+        <v>523673.7427999999</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>39130.6</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>692194.3428000001</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7648,7 +7880,7 @@
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>25</v>
@@ -7657,7 +7889,7 @@
         <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -7679,21 +7911,21 @@
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,2,1,0,1</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>264203.5007358</v>
+        <v>238435.7299398</v>
       </c>
       <c r="U10" t="n">
-        <v>46003.88484</v>
+        <v>42889.76404</v>
       </c>
       <c r="V10" t="n">
-        <v>28192.5895376</v>
+        <v>25841.9210256</v>
       </c>
       <c r="W10" t="n">
         <v>2540</v>
@@ -7711,7 +7943,7 @@
         <v>3780</v>
       </c>
       <c r="AB10" t="n">
-        <v>1580</v>
+        <v>1080</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -7729,13 +7961,37 @@
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="n">
+        <v>523673.7427999999</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3089.804913</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>39130.6</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>695284.147713</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7759,7 +8015,7 @@
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>25</v>
@@ -7768,7 +8024,7 @@
         <v>15</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -7790,21 +8046,21 @@
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,1,0,10</t>
+          <t>5,3,3,3,2,2,1,0,5</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>276692.8861338</v>
+        <v>250925.1153378</v>
       </c>
       <c r="U11" t="n">
-        <v>47639.44524</v>
+        <v>44525.32444</v>
       </c>
       <c r="V11" t="n">
-        <v>29431.4237936</v>
+        <v>27080.7552816</v>
       </c>
       <c r="W11" t="n">
         <v>2540</v>
@@ -7822,7 +8078,7 @@
         <v>3780</v>
       </c>
       <c r="AB11" t="n">
-        <v>1830</v>
+        <v>1330</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -7840,13 +8096,37 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
       </c>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="n">
+        <v>523673.7427999999</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>34425.354043</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>39130.6</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>726619.6968429999</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7870,13 +8150,13 @@
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H12" t="n">
         <v>25</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
@@ -7901,24 +8181,24 @@
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,0,0,5</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>276692.8861338</v>
+        <v>263414.5007358</v>
       </c>
       <c r="U12" t="n">
-        <v>47639.44524</v>
+        <v>46160.88484</v>
       </c>
       <c r="V12" t="n">
-        <v>29431.4237936</v>
+        <v>28319.5895376</v>
       </c>
       <c r="W12" t="n">
-        <v>2460</v>
+        <v>2540</v>
       </c>
       <c r="X12" t="n">
         <v>720</v>
@@ -7930,10 +8210,10 @@
         <v>2160</v>
       </c>
       <c r="AA12" t="n">
-        <v>3720</v>
+        <v>3780</v>
       </c>
       <c r="AB12" t="n">
-        <v>1830</v>
+        <v>1580</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -7948,7 +8228,7 @@
         <v>25</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>5</v>
@@ -7958,6 +8238,30 @@
       </c>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="n">
+        <v>523673.7427999999</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>65760.903173</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>39130.6</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>757955.245973</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7966,10 +8270,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -7984,13 +8288,13 @@
         <v>30</v>
       </c>
       <c r="H13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8002,10 +8306,10 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8016,20 +8320,20 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,0,6</t>
+          <t>5,3,3,3,4,2,1,0,10</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>412269.618482</v>
+        <v>275903.8861338</v>
       </c>
       <c r="U13" t="n">
-        <v>70736.812661</v>
+        <v>47796.44524</v>
       </c>
       <c r="V13" t="n">
-        <v>49932.4614916</v>
+        <v>29558.4237936</v>
       </c>
       <c r="W13" t="n">
-        <v>2620</v>
+        <v>2540</v>
       </c>
       <c r="X13" t="n">
         <v>720</v>
@@ -8041,7 +8345,7 @@
         <v>2160</v>
       </c>
       <c r="AA13" t="n">
-        <v>3840</v>
+        <v>3780</v>
       </c>
       <c r="AB13" t="n">
         <v>1830</v>
@@ -8050,25 +8354,49 @@
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE13" t="n">
         <v>5000</v>
       </c>
       <c r="AF13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="n">
+        <v>523673.7427999999</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>97096.45230299998</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>39130.6</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>789290.795103</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8077,10 +8405,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8095,13 +8423,13 @@
         <v>30</v>
       </c>
       <c r="H14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8113,10 +8441,10 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8127,20 +8455,20 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,4,2,0,0,5</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>412269.618482</v>
+        <v>275903.8861338</v>
       </c>
       <c r="U14" t="n">
-        <v>70736.812661</v>
+        <v>47796.44524</v>
       </c>
       <c r="V14" t="n">
-        <v>49932.4614916</v>
+        <v>29558.4237936</v>
       </c>
       <c r="W14" t="n">
-        <v>2700</v>
+        <v>2460</v>
       </c>
       <c r="X14" t="n">
         <v>720</v>
@@ -8152,7 +8480,7 @@
         <v>2160</v>
       </c>
       <c r="AA14" t="n">
-        <v>3900</v>
+        <v>3720</v>
       </c>
       <c r="AB14" t="n">
         <v>1830</v>
@@ -8161,25 +8489,49 @@
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE14" t="n">
         <v>5000</v>
       </c>
       <c r="AF14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
       </c>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="n">
+        <v>523673.7427999999</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>97096.45230299998</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>38947.6</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>789107.795103</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8188,10 +8540,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8206,13 +8558,13 @@
         <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -8224,10 +8576,10 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -8238,20 +8590,20 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,4,2,2,0,6</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1005438.0345778</v>
+        <v>414769.618482</v>
       </c>
       <c r="U15" t="n">
-        <v>171018.571302</v>
+        <v>71544.812661</v>
       </c>
       <c r="V15" t="n">
-        <v>142019.0966</v>
+        <v>50706.4614916</v>
       </c>
       <c r="W15" t="n">
-        <v>3020</v>
+        <v>2620</v>
       </c>
       <c r="X15" t="n">
         <v>720</v>
@@ -8263,7 +8615,7 @@
         <v>2160</v>
       </c>
       <c r="AA15" t="n">
-        <v>4140</v>
+        <v>3840</v>
       </c>
       <c r="AB15" t="n">
         <v>1830</v>
@@ -8272,25 +8624,49 @@
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AE15" t="n">
         <v>5000</v>
       </c>
       <c r="AF15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AG15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="n">
+        <v>805759.30473</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>148844.0246896</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>111712</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1213804.4794196</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8299,10 +8675,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8317,13 +8693,13 @@
         <v>30</v>
       </c>
       <c r="H16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -8335,10 +8711,10 @@
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -8349,20 +8725,20 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5221175.0894604</v>
+        <v>414769.618482</v>
       </c>
       <c r="U16" t="n">
-        <v>896421.5161275</v>
+        <v>71544.812661</v>
       </c>
       <c r="V16" t="n">
-        <v>708439.9492452</v>
+        <v>50706.4614916</v>
       </c>
       <c r="W16" t="n">
-        <v>3660</v>
+        <v>2700</v>
       </c>
       <c r="X16" t="n">
         <v>720</v>
@@ -8374,7 +8750,7 @@
         <v>2160</v>
       </c>
       <c r="AA16" t="n">
-        <v>4620</v>
+        <v>3900</v>
       </c>
       <c r="AB16" t="n">
         <v>1830</v>
@@ -8383,25 +8759,49 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="AE16" t="n">
         <v>5000</v>
       </c>
       <c r="AF16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
       </c>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="n">
+        <v>805759.30473</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>148844.0246896</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>111895</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1213987.4794196</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8410,10 +8810,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8428,13 +8828,13 @@
         <v>30</v>
       </c>
       <c r="H17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="I17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -8446,10 +8846,10 @@
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -8460,20 +8860,20 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,3,3,3,8</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>8540774.058678199</v>
+        <v>1042933.0345778</v>
       </c>
       <c r="U17" t="n">
-        <v>1464637.1365725</v>
+        <v>177875.571302</v>
       </c>
       <c r="V17" t="n">
-        <v>1152496.7786064</v>
+        <v>148652.0966</v>
       </c>
       <c r="W17" t="n">
-        <v>4700</v>
+        <v>3020</v>
       </c>
       <c r="X17" t="n">
         <v>720</v>
@@ -8485,7 +8885,7 @@
         <v>2160</v>
       </c>
       <c r="AA17" t="n">
-        <v>5400</v>
+        <v>4140</v>
       </c>
       <c r="AB17" t="n">
         <v>1830</v>
@@ -8494,58 +8894,82 @@
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AE17" t="n">
         <v>5000</v>
       </c>
       <c r="AF17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
       </c>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="n">
+        <v>1844654.07436</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>339439.9576516</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>155697.55</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>685692</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>3139752.5320116</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>161</v>
+        <v>400</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -8557,106 +8981,130 @@
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,1,0,0,1</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>224736.4014012</v>
+        <v>5356052.0894604</v>
       </c>
       <c r="U18" t="n">
-        <v>43504.4771675</v>
+        <v>920149.5161275</v>
       </c>
       <c r="V18" t="n">
-        <v>23580.6162168</v>
+        <v>730279.9492452</v>
       </c>
       <c r="W18" t="n">
-        <v>1580</v>
+        <v>3660</v>
       </c>
       <c r="X18" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>1200</v>
+        <v>2160</v>
       </c>
       <c r="AA18" t="n">
-        <v>2060</v>
+        <v>4620</v>
       </c>
       <c r="AB18" t="n">
-        <v>600</v>
+        <v>1830</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="AE18" t="n">
         <v>5000</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="AH18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
       </c>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="n">
+        <v>11253114.8808</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>2064376.42810005</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>2007622</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>15920385.95890005</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>500</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
         <v>10</v>
-      </c>
-      <c r="C19" t="n">
-        <v>200</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>5</v>
       </c>
       <c r="G19" t="n">
+        <v>30</v>
+      </c>
+      <c r="H19" t="n">
+        <v>160</v>
+      </c>
+      <c r="I19" t="n">
+        <v>150</v>
+      </c>
+      <c r="J19" t="n">
         <v>10</v>
-      </c>
-      <c r="H19" t="n">
-        <v>20</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -8668,34 +9116,34 @@
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,0,0,2</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>305226.2641018</v>
+        <v>8850492.058678199</v>
       </c>
       <c r="U19" t="n">
-        <v>56082.584047</v>
+        <v>1518670.1365725</v>
       </c>
       <c r="V19" t="n">
-        <v>33483.2290072</v>
+        <v>1201728.7786064</v>
       </c>
       <c r="W19" t="n">
-        <v>2460</v>
+        <v>4700</v>
       </c>
       <c r="X19" t="n">
         <v>720</v>
@@ -8707,34 +9155,58 @@
         <v>2160</v>
       </c>
       <c r="AA19" t="n">
-        <v>3720</v>
+        <v>5400</v>
       </c>
       <c r="AB19" t="n">
-        <v>1330</v>
+        <v>1830</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="AE19" t="n">
         <v>5000</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH19" t="n">
         <v>10</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>2</v>
       </c>
       <c r="AI19" t="n">
         <v>0</v>
       </c>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="n">
+        <v>18261848.08195</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3349467.14606525</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1061573.2</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>3470670.6</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>26257827.97801525</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8743,31 +9215,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15</v>
+      </c>
+      <c r="I20" t="n">
         <v>5</v>
       </c>
-      <c r="G20" t="n">
-        <v>20</v>
-      </c>
-      <c r="H20" t="n">
-        <v>25</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15</v>
-      </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -8779,73 +9251,97 @@
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,1,0,0,1</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>395951.9900162001</v>
+        <v>213736.4014012</v>
       </c>
       <c r="U20" t="n">
-        <v>69937.355639</v>
+        <v>41564.4771675</v>
       </c>
       <c r="V20" t="n">
-        <v>47623.7572272</v>
+        <v>22829.6162168</v>
       </c>
       <c r="W20" t="n">
-        <v>2540</v>
+        <v>1080</v>
       </c>
       <c r="X20" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="Y20" t="n">
         <v>15000</v>
       </c>
       <c r="Z20" t="n">
-        <v>2160</v>
+        <v>900</v>
       </c>
       <c r="AA20" t="n">
-        <v>3780</v>
+        <v>1560</v>
       </c>
       <c r="AB20" t="n">
-        <v>1580</v>
+        <v>450</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AE20" t="n">
         <v>5000</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
       </c>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="n">
+        <v>553184.92385</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3246.46325355</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>14696.9</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>32982.8</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>636957.0871035501</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8854,31 +9350,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -8890,73 +9386,97 @@
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,2,2,0,0,2</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>459277.509289</v>
+        <v>282126.2641018</v>
       </c>
       <c r="U21" t="n">
-        <v>81753.992703</v>
+        <v>52008.584047</v>
       </c>
       <c r="V21" t="n">
-        <v>57325.7231162</v>
+        <v>31906.4290072</v>
       </c>
       <c r="W21" t="n">
-        <v>2700</v>
+        <v>1410</v>
       </c>
       <c r="X21" t="n">
-        <v>720</v>
+        <v>450</v>
       </c>
       <c r="Y21" t="n">
         <v>15000</v>
       </c>
       <c r="Z21" t="n">
-        <v>2160</v>
+        <v>1350</v>
       </c>
       <c r="AA21" t="n">
-        <v>3900</v>
+        <v>2370</v>
       </c>
       <c r="AB21" t="n">
-        <v>1830</v>
+        <v>925</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AE21" t="n">
         <v>5000</v>
       </c>
       <c r="AF21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AI21" t="n">
         <v>0</v>
       </c>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="n">
+        <v>655173.8065600001</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>49269</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>42860.7042575</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>19028.1</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>65965.60000000001</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>832297.2108175</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8965,10 +9485,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -8980,16 +9500,16 @@
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9001,34 +9521,34 @@
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>529685.18982</v>
+        <v>395951.9900162001</v>
       </c>
       <c r="U22" t="n">
-        <v>98257.602749</v>
+        <v>69937.355639</v>
       </c>
       <c r="V22" t="n">
-        <v>70452.8041198</v>
+        <v>47623.7572272</v>
       </c>
       <c r="W22" t="n">
-        <v>3020</v>
+        <v>2540</v>
       </c>
       <c r="X22" t="n">
         <v>720</v>
@@ -9040,34 +9560,58 @@
         <v>2160</v>
       </c>
       <c r="AA22" t="n">
-        <v>4140</v>
+        <v>3780</v>
       </c>
       <c r="AB22" t="n">
-        <v>1830</v>
+        <v>1580</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AE22" t="n">
         <v>5000</v>
       </c>
       <c r="AF22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AG22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
       </c>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="n">
+        <v>828761.61542</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>103665.6825617</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>23382.7</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>95470.39999999999</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1165549.3479817</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9076,10 +9620,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -9094,13 +9638,13 @@
         <v>30</v>
       </c>
       <c r="H23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9112,10 +9656,10 @@
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9126,20 +9670,20 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>674024.0463558</v>
+        <v>459277.509289</v>
       </c>
       <c r="U23" t="n">
-        <v>131969.3272175</v>
+        <v>81753.992703</v>
       </c>
       <c r="V23" t="n">
-        <v>97135.46963560001</v>
+        <v>57325.7231162</v>
       </c>
       <c r="W23" t="n">
-        <v>3660</v>
+        <v>2700</v>
       </c>
       <c r="X23" t="n">
         <v>720</v>
@@ -9151,7 +9695,7 @@
         <v>2160</v>
       </c>
       <c r="AA23" t="n">
-        <v>4620</v>
+        <v>3900</v>
       </c>
       <c r="AB23" t="n">
         <v>1830</v>
@@ -9160,25 +9704,319 @@
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="AE23" t="n">
         <v>5000</v>
       </c>
       <c r="AF23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
         <v>0</v>
       </c>
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="n">
+        <v>904996.0132149999</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>167046.85364285</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>30363.65</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>150324</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1366999.46685785</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>15</v>
+      </c>
+      <c r="C24" t="n">
+        <v>300</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>30</v>
+      </c>
+      <c r="H24" t="n">
+        <v>55</v>
+      </c>
+      <c r="I24" t="n">
+        <v>45</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>85</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>15</v>
+      </c>
+      <c r="O24" t="n">
+        <v>270</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>30</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>529685.18982</v>
+      </c>
+      <c r="U24" t="n">
+        <v>98257.602749</v>
+      </c>
+      <c r="V24" t="n">
+        <v>70452.8041198</v>
+      </c>
+      <c r="W24" t="n">
+        <v>3020</v>
+      </c>
+      <c r="X24" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>4140</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1830</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="n">
+        <v>1025225.806245</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>189115.76623195</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>43173.05</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>255711.2</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1627494.77247695</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>400</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>30</v>
+      </c>
+      <c r="H25" t="n">
+        <v>95</v>
+      </c>
+      <c r="I25" t="n">
+        <v>85</v>
+      </c>
+      <c r="J25" t="n">
+        <v>10</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>85</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>16</v>
+      </c>
+      <c r="O25" t="n">
+        <v>280</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>30</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>674024.0463558</v>
+      </c>
+      <c r="U25" t="n">
+        <v>131969.3272175</v>
+      </c>
+      <c r="V25" t="n">
+        <v>97135.46963560001</v>
+      </c>
+      <c r="W25" t="n">
+        <v>3660</v>
+      </c>
+      <c r="X25" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>4620</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1830</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="n">
+        <v>1274892.692</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>234926.16256125</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>466485.6</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>2159333.85456125</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/opm_hero_property/heroes/85.xlsx
+++ b/opm_hero_property/heroes/85.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AW25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6739,40 +6739,60 @@
       </c>
       <c r="AL1" t="inlineStr">
         <is>
+          <t>job_contact</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>attr_addition</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>pvp_addition</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
           <t>基础战力</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>装备战力</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>天赋战力</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>研究所战力</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>职阶战力</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>机械核心战力</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>限制器战力</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>收集战力</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
         <is>
           <t>总战力</t>
         </is>
@@ -6812,7 +6832,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
         <v>85</v>
@@ -6835,17 +6855,17 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,5,5,5</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5356052.0894604</v>
+        <v>6239411.2095564</v>
       </c>
       <c r="U2" t="n">
-        <v>920149.5161275</v>
+        <v>1081677.4609675</v>
       </c>
       <c r="V2" t="n">
-        <v>730279.9492452</v>
+        <v>852477.7755012</v>
       </c>
       <c r="W2" t="n">
         <v>3660</v>
@@ -6884,33 +6904,41 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>11253114.8808</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AQ2" t="n">
         <v>2064376.42810005</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AR2" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP2" t="n">
-        <v>2007622</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>0</v>
-      </c>
       <c r="AS2" t="n">
-        <v>15920385.95890005</v>
+        <v>2907805.190464</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1800356.25</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>18620925.39936405</v>
       </c>
     </row>
     <row r="3">
@@ -6947,7 +6975,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L3" t="n">
         <v>85</v>
@@ -6970,17 +6998,17 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,5,5,5</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>674024.0463558</v>
+        <v>773504.4109478</v>
       </c>
       <c r="U3" t="n">
-        <v>131969.3272175</v>
+        <v>150159.9342975</v>
       </c>
       <c r="V3" t="n">
-        <v>97135.46963560001</v>
+        <v>111183.2804036</v>
       </c>
       <c r="W3" t="n">
         <v>3660</v>
@@ -7019,33 +7047,41 @@
         <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
       <c r="AL3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>1274892.692</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AP3" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AQ3" t="n">
         <v>234926.16256125</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AR3" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP3" t="n">
-        <v>466485.6</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>0</v>
-      </c>
       <c r="AS3" t="n">
-        <v>2159333.85456125</v>
+        <v>568411.01536</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>203845.05</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2465104.31992125</v>
       </c>
     </row>
     <row r="4">
@@ -7082,7 +7118,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>85</v>
@@ -7105,17 +7141,17 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>3,2,1,1,0,0,0,0,0</t>
+          <t>3,2,1,1,0,0,0,0</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>7404.2684</v>
+        <v>7869.2684</v>
       </c>
       <c r="U4" t="n">
-        <v>1639.3397</v>
+        <v>1724.3397</v>
       </c>
       <c r="V4" t="n">
-        <v>544.0063</v>
+        <v>608.0063</v>
       </c>
       <c r="W4" t="n">
         <v>562</v>
@@ -7154,25 +7190,21 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
         <v>19107.098555</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AP4" t="n">
         <v>4549.950000000001</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
@@ -7180,7 +7212,19 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>23657.048555</v>
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1419.5</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>25076.548555</v>
       </c>
     </row>
     <row r="5">
@@ -7217,7 +7261,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>85</v>
@@ -7240,17 +7284,17 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>3,2,2,2,0,0,0,0,0</t>
+          <t>3,2,2,2,0,0,0,0</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>19758.8673</v>
+        <v>33433.8673</v>
       </c>
       <c r="U5" t="n">
-        <v>4115.027</v>
+        <v>6615.027</v>
       </c>
       <c r="V5" t="n">
-        <v>1649.595</v>
+        <v>3540.595</v>
       </c>
       <c r="W5" t="n">
         <v>673</v>
@@ -7289,25 +7333,21 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
         <v>48531.82485</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AP5" t="n">
         <v>11988.35</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
@@ -7315,7 +7355,19 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>60520.17485</v>
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>41798.25</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>102318.42485</v>
       </c>
     </row>
     <row r="6">
@@ -7352,7 +7404,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>85</v>
@@ -7375,17 +7427,17 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,0,0,0,0</t>
+          <t>4,3,2,2,0,0,0,0</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>55904.8144</v>
+        <v>114530.8144</v>
       </c>
       <c r="U6" t="n">
-        <v>10569.875</v>
+        <v>21289.875</v>
       </c>
       <c r="V6" t="n">
-        <v>5302.198</v>
+        <v>13411.198</v>
       </c>
       <c r="W6" t="n">
         <v>1000</v>
@@ -7424,33 +7476,41 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
         <v>115883.9904</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AP6" t="n">
         <v>32846</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AS6" t="n">
         <v>9406.6</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>164297.0904</v>
+      <c r="AT6" t="n">
+        <v>179220.75</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>343517.8404</v>
       </c>
     </row>
     <row r="7">
@@ -7487,7 +7547,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>85</v>
@@ -7510,17 +7570,17 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,1,0,0,1</t>
+          <t>4,3,2,2,0,1,0,0</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>55904.8144</v>
+        <v>114530.8144</v>
       </c>
       <c r="U7" t="n">
-        <v>10569.875</v>
+        <v>21289.875</v>
       </c>
       <c r="V7" t="n">
-        <v>5302.198</v>
+        <v>13411.198</v>
       </c>
       <c r="W7" t="n">
         <v>1080</v>
@@ -7559,33 +7619,41 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="n">
         <v>115883.9904</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AP7" t="n">
         <v>32846</v>
       </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AS7" t="n">
         <v>9589.6</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>164480.0904</v>
+      <c r="AT7" t="n">
+        <v>179220.75</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>343700.8404</v>
       </c>
     </row>
     <row r="8">
@@ -7622,7 +7690,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>85</v>
@@ -7645,17 +7713,17 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>4,3,2,2,1,1,0,0,2</t>
+          <t>4,3,2,2,1,1,0,0</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>56178.7161008</v>
+        <v>114804.7161008</v>
       </c>
       <c r="U8" t="n">
-        <v>10608.604375</v>
+        <v>21328.604375</v>
       </c>
       <c r="V8" t="n">
-        <v>5325.659188000001</v>
+        <v>13434.659188</v>
       </c>
       <c r="W8" t="n">
         <v>1080</v>
@@ -7694,33 +7762,41 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="n">
         <v>115883.9904</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AP8" t="n">
         <v>32846</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AQ8" t="n">
         <v>676.0362193</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AR8" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AS8" t="n">
         <v>9589.6</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>165156.1266193</v>
+      <c r="AT8" t="n">
+        <v>179220.75</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>344376.8766193</v>
       </c>
     </row>
     <row r="9">
@@ -7757,7 +7833,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>85</v>
@@ -7780,35 +7856,35 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>5,3,3,3,0,2,1,0,0</t>
+          <t>5,3,3,3,0,2,1,0</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>237186.7914</v>
+        <v>413129.989314</v>
       </c>
       <c r="U9" t="n">
-        <v>42726.208</v>
+        <v>73115.32008</v>
       </c>
       <c r="V9" t="n">
-        <v>25718.0376</v>
+        <v>48982.509976</v>
       </c>
       <c r="W9" t="n">
-        <v>2540</v>
+        <v>2550</v>
       </c>
       <c r="X9" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y9" t="n">
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AA9" t="n">
-        <v>3780</v>
+        <v>3790</v>
       </c>
       <c r="AB9" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -7829,33 +7905,41 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="n">
         <v>523673.7427999999</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AP9" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP9" t="n">
-        <v>39130.6</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
       <c r="AS9" t="n">
-        <v>692194.3428000001</v>
+        <v>44359.087428</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>419942.7</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>94347.60000000001</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1211713.130228</v>
       </c>
     </row>
     <row r="10">
@@ -7892,7 +7976,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
         <v>85</v>
@@ -7915,35 +7999,35 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,2,1,0,1</t>
+          <t>5,3,3,3,1,2,1,0</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>238435.7299398</v>
+        <v>471434.7085551684</v>
       </c>
       <c r="U10" t="n">
-        <v>42889.76404</v>
+        <v>82638.48366032001</v>
       </c>
       <c r="V10" t="n">
-        <v>25841.9210256</v>
+        <v>55487.5084828288</v>
       </c>
       <c r="W10" t="n">
-        <v>2540</v>
+        <v>2550</v>
       </c>
       <c r="X10" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y10" t="n">
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AA10" t="n">
-        <v>3780</v>
+        <v>3790</v>
       </c>
       <c r="AB10" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -7964,33 +8048,45 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO10" t="n">
         <v>523673.7427999999</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AP10" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AQ10" t="n">
         <v>3089.804913</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AR10" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP10" t="n">
-        <v>39130.6</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>0</v>
-      </c>
       <c r="AS10" t="n">
-        <v>695284.147713</v>
+        <v>44359.087428</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>419942.7</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>252676.0844466421</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1373131.419587642</v>
       </c>
     </row>
     <row r="11">
@@ -8027,7 +8123,7 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L11" t="n">
         <v>85</v>
@@ -8050,35 +8146,35 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,1,0,5</t>
+          <t>5,3,3,3,2,2,1,0</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>250925.1153378</v>
+        <v>548323.6228903325</v>
       </c>
       <c r="U11" t="n">
-        <v>44525.32444</v>
+        <v>93043.61223471999</v>
       </c>
       <c r="V11" t="n">
-        <v>27080.7552816</v>
+        <v>63874.6417554368</v>
       </c>
       <c r="W11" t="n">
-        <v>2540</v>
+        <v>2550</v>
       </c>
       <c r="X11" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y11" t="n">
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AA11" t="n">
-        <v>3780</v>
+        <v>3790</v>
       </c>
       <c r="AB11" t="n">
-        <v>1330</v>
+        <v>1370</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -8099,33 +8195,45 @@
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO11" t="n">
         <v>523673.7427999999</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AP11" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AQ11" t="n">
         <v>34425.354043</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AR11" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP11" t="n">
-        <v>39130.6</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>0</v>
-      </c>
       <c r="AS11" t="n">
-        <v>726619.6968429999</v>
+        <v>44359.087428</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>419942.7</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>418688.3531326621</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1570479.237403662</v>
       </c>
     </row>
     <row r="12">
@@ -8162,7 +8270,7 @@
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
         <v>85</v>
@@ -8185,35 +8293,35 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,3,2,1,0</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>263414.5007358</v>
+        <v>643325.6663214456</v>
       </c>
       <c r="U12" t="n">
-        <v>46160.88484</v>
+        <v>104148.12285532</v>
       </c>
       <c r="V12" t="n">
-        <v>28319.5895376</v>
+        <v>75790.97651397121</v>
       </c>
       <c r="W12" t="n">
-        <v>2540</v>
+        <v>2560</v>
       </c>
       <c r="X12" t="n">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>2160</v>
+        <v>2180</v>
       </c>
       <c r="AA12" t="n">
-        <v>3780</v>
+        <v>3800</v>
       </c>
       <c r="AB12" t="n">
-        <v>1580</v>
+        <v>1660</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -8234,33 +8342,45 @@
         <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO12" t="n">
         <v>523673.7427999999</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AP12" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AQ12" t="n">
         <v>65760.903173</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AR12" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP12" t="n">
-        <v>39130.6</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>0</v>
-      </c>
       <c r="AS12" t="n">
-        <v>757955.245973</v>
+        <v>44359.087428</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>419942.7</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>628052.395577488</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1811178.828978488</v>
       </c>
     </row>
     <row r="13">
@@ -8297,7 +8417,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>85</v>
@@ -8320,35 +8440,35 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,1,0,10</t>
+          <t>5,3,3,3,4,2,1,0</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>275903.8861338</v>
+        <v>752149.3448128037</v>
       </c>
       <c r="U13" t="n">
-        <v>47796.44524</v>
+        <v>118666.29402372</v>
       </c>
       <c r="V13" t="n">
-        <v>29558.4237936</v>
+        <v>87935.31380872321</v>
       </c>
       <c r="W13" t="n">
-        <v>2540</v>
+        <v>2590</v>
       </c>
       <c r="X13" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>2160</v>
+        <v>2210</v>
       </c>
       <c r="AA13" t="n">
-        <v>3780</v>
+        <v>3830</v>
       </c>
       <c r="AB13" t="n">
-        <v>1830</v>
+        <v>2030</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -8369,33 +8489,45 @@
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO13" t="n">
         <v>523673.7427999999</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AP13" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AQ13" t="n">
         <v>97096.45230299998</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AR13" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP13" t="n">
-        <v>39130.6</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>0</v>
-      </c>
       <c r="AS13" t="n">
-        <v>789290.795103</v>
+        <v>44359.087428</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>419942.7</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>876343.3454456299</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>2090805.32797663</v>
       </c>
     </row>
     <row r="14">
@@ -8432,7 +8564,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
         <v>85</v>
@@ -8455,35 +8587,35 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,0,0,5</t>
+          <t>5,3,3,3,4,2,0,0</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>275903.8861338</v>
+        <v>883152.8320820944</v>
       </c>
       <c r="U14" t="n">
-        <v>47796.44524</v>
+        <v>133498.42669568</v>
       </c>
       <c r="V14" t="n">
-        <v>29558.4237936</v>
+        <v>98474.90167767041</v>
       </c>
       <c r="W14" t="n">
-        <v>2460</v>
+        <v>2510</v>
       </c>
       <c r="X14" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>2160</v>
+        <v>2210</v>
       </c>
       <c r="AA14" t="n">
-        <v>3720</v>
+        <v>3770</v>
       </c>
       <c r="AB14" t="n">
-        <v>1830</v>
+        <v>2030</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -8504,33 +8636,45 @@
         <v>5</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
       <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
         <v>523673.7427999999</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AP14" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AQ14" t="n">
         <v>97096.45230299998</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AR14" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP14" t="n">
-        <v>38947.6</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>0</v>
-      </c>
       <c r="AS14" t="n">
-        <v>789107.795103</v>
+        <v>44176.087428</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>419942.7</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>1170291.178397891</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>2384570.160928891</v>
       </c>
     </row>
     <row r="15">
@@ -8567,7 +8711,7 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L15" t="n">
         <v>85</v>
@@ -8590,35 +8734,35 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,0,6</t>
+          <t>5,3,3,3,4,2,2,0</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>414769.618482</v>
+        <v>1415709.655786286</v>
       </c>
       <c r="U15" t="n">
-        <v>71544.812661</v>
+        <v>224805.68901995</v>
       </c>
       <c r="V15" t="n">
-        <v>50706.4614916</v>
+        <v>169174.2100260548</v>
       </c>
       <c r="W15" t="n">
-        <v>2620</v>
+        <v>2720</v>
       </c>
       <c r="X15" t="n">
-        <v>720</v>
+        <v>820</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>2160</v>
+        <v>2260</v>
       </c>
       <c r="AA15" t="n">
-        <v>3840</v>
+        <v>3940</v>
       </c>
       <c r="AB15" t="n">
-        <v>1830</v>
+        <v>2230</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -8639,33 +8783,45 @@
         <v>6</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
       <c r="AL15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO15" t="n">
         <v>805759.30473</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AP15" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AQ15" t="n">
         <v>148844.0246896</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AR15" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP15" t="n">
-        <v>111712</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>0</v>
-      </c>
       <c r="AS15" t="n">
-        <v>1213804.4794196</v>
+        <v>127810.6860946</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>768361.2</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>1956369.752159556</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>3954634.117673756</v>
       </c>
     </row>
     <row r="16">
@@ -8702,7 +8858,7 @@
         <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" t="n">
         <v>85</v>
@@ -8725,35 +8881,35 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,4,2,2,1</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>414769.618482</v>
+        <v>1442510.357696718</v>
       </c>
       <c r="U16" t="n">
-        <v>71544.812661</v>
+        <v>228949.18941651</v>
       </c>
       <c r="V16" t="n">
-        <v>50706.4614916</v>
+        <v>172277.7240437124</v>
       </c>
       <c r="W16" t="n">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="X16" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AA16" t="n">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="AB16" t="n">
-        <v>1830</v>
+        <v>2630</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -8774,33 +8930,45 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
       <c r="AL16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
         <v>805759.30473</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AP16" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AQ16" t="n">
         <v>148844.0246896</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AR16" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP16" t="n">
-        <v>111895</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>0</v>
-      </c>
       <c r="AS16" t="n">
-        <v>1213987.4794196</v>
+        <v>127993.6860946</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>768361.2</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>2030805.812407783</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4029253.177921983</v>
       </c>
     </row>
     <row r="17">
@@ -8837,7 +9005,7 @@
         <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L17" t="n">
         <v>85</v>
@@ -8860,35 +9028,35 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,4,3,3,3</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1042933.0345778</v>
+        <v>2649234.637174794</v>
       </c>
       <c r="U17" t="n">
-        <v>177875.571302</v>
+        <v>417677.185749536</v>
       </c>
       <c r="V17" t="n">
-        <v>148652.0966</v>
+        <v>341824.3740832</v>
       </c>
       <c r="W17" t="n">
-        <v>3020</v>
+        <v>3220</v>
       </c>
       <c r="X17" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AA17" t="n">
-        <v>4140</v>
+        <v>4340</v>
       </c>
       <c r="AB17" t="n">
-        <v>1830</v>
+        <v>2630</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -8909,33 +9077,45 @@
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
       <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO17" t="n">
         <v>1844654.07436</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AP17" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AQ17" t="n">
         <v>339439.9576516</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
         <v>155697.55</v>
       </c>
-      <c r="AP17" t="n">
-        <v>685692</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>0</v>
-      </c>
       <c r="AS17" t="n">
-        <v>3139752.5320116</v>
+        <v>759445.1629744</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1227658.25</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>3072661.924838992</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>7513825.869824992</v>
       </c>
     </row>
     <row r="18">
@@ -8972,7 +9152,7 @@
         <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L18" t="n">
         <v>85</v>
@@ -8995,35 +9175,35 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,5,5,5</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5356052.0894604</v>
+        <v>9421861.7776001</v>
       </c>
       <c r="U18" t="n">
-        <v>920149.5161275</v>
+        <v>1477859.001361665</v>
       </c>
       <c r="V18" t="n">
-        <v>730279.9492452</v>
+        <v>1176231.897010342</v>
       </c>
       <c r="W18" t="n">
-        <v>3660</v>
+        <v>3860</v>
       </c>
       <c r="X18" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AA18" t="n">
-        <v>4620</v>
+        <v>4820</v>
       </c>
       <c r="AB18" t="n">
-        <v>1830</v>
+        <v>2630</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -9044,33 +9224,45 @@
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
       <c r="AL18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO18" t="n">
         <v>11253114.8808</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AP18" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AQ18" t="n">
         <v>2064376.42810005</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AR18" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP18" t="n">
-        <v>2007622</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>0</v>
-      </c>
       <c r="AS18" t="n">
-        <v>15920385.95890005</v>
+        <v>2907805.190464</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1800356.25</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>7780089.395441002</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>26401014.79480505</v>
       </c>
     </row>
     <row r="19">
@@ -9107,7 +9299,7 @@
         <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L19" t="n">
         <v>85</v>
@@ -9130,35 +9322,35 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,5,5,5</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>8850492.058678199</v>
+        <v>16294356.05371595</v>
       </c>
       <c r="U19" t="n">
-        <v>1518670.1365725</v>
+        <v>2660807.30374104</v>
       </c>
       <c r="V19" t="n">
-        <v>1201728.7786064</v>
+        <v>2115090.440312218</v>
       </c>
       <c r="W19" t="n">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="X19" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AA19" t="n">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="AB19" t="n">
-        <v>1830</v>
+        <v>2630</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -9179,33 +9371,45 @@
         <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
       <c r="AL19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>1,1,5000;2,1,5000;3,1,5000;4,1,5000;1,2,5000;2,2,5000;3,2,5000;4,2,5000;5,1,5000;5,2,5000</t>
+        </is>
+      </c>
+      <c r="AO19" t="n">
         <v>18261848.08195</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AP19" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AQ19" t="n">
         <v>3349467.14606525</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AR19" t="n">
         <v>1061573.2</v>
       </c>
-      <c r="AP19" t="n">
-        <v>3470670.6</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>0</v>
-      </c>
       <c r="AS19" t="n">
-        <v>26257827.97801525</v>
+        <v>6209824.062292499</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1800356.25</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>16039330.29101663</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>46836667.98132437</v>
       </c>
     </row>
     <row r="20">
@@ -9242,7 +9446,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>85</v>
@@ -9265,17 +9469,17 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,1,0,0,1</t>
+          <t>5,3,3,3,1,1,0,0</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>213736.4014012</v>
+        <v>220338.4014012</v>
       </c>
       <c r="U20" t="n">
-        <v>41564.4771675</v>
+        <v>42771.4771675</v>
       </c>
       <c r="V20" t="n">
-        <v>22829.6162168</v>
+        <v>23761.6162168</v>
       </c>
       <c r="W20" t="n">
         <v>1080</v>
@@ -9314,33 +9518,41 @@
         <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
       <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="n">
         <v>553184.92385</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AP20" t="n">
         <v>32846</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AQ20" t="n">
         <v>3246.46325355</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AR20" t="n">
         <v>14696.9</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AS20" t="n">
         <v>32982.8</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>636957.0871035501</v>
+      <c r="AT20" t="n">
+        <v>20289.3</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>657246.38710355</v>
       </c>
     </row>
     <row r="21">
@@ -9377,7 +9589,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>85</v>
@@ -9400,17 +9612,17 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,0,0,2</t>
+          <t>5,3,3,3,2,2,0,0</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>282126.2641018</v>
+        <v>295763.3213358</v>
       </c>
       <c r="U21" t="n">
-        <v>52008.584047</v>
+        <v>54519.603801</v>
       </c>
       <c r="V21" t="n">
-        <v>31906.4290072</v>
+        <v>33781.3410992</v>
       </c>
       <c r="W21" t="n">
         <v>1410</v>
@@ -9449,33 +9661,41 @@
         <v>2</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
       <c r="AL21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="n">
         <v>655173.8065600001</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AP21" t="n">
         <v>49269</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AQ21" t="n">
         <v>42860.7042575</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AR21" t="n">
         <v>19028.1</v>
       </c>
-      <c r="AP21" t="n">
-        <v>65965.60000000001</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>0</v>
-      </c>
       <c r="AS21" t="n">
-        <v>832297.2108175</v>
+        <v>72509.08806560001</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>35200.35</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>874041.0488831</v>
       </c>
     </row>
     <row r="22">
@@ -9512,7 +9732,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
         <v>85</v>
@@ -9535,35 +9755,35 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,3,2,1,0</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>395951.9900162001</v>
+        <v>522875.7883930115</v>
       </c>
       <c r="U22" t="n">
-        <v>69937.355639</v>
+        <v>88855.36449051699</v>
       </c>
       <c r="V22" t="n">
-        <v>47623.7572272</v>
+        <v>62426.09497313281</v>
       </c>
       <c r="W22" t="n">
-        <v>2540</v>
+        <v>2590</v>
       </c>
       <c r="X22" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>2160</v>
+        <v>2210</v>
       </c>
       <c r="AA22" t="n">
-        <v>3780</v>
+        <v>3830</v>
       </c>
       <c r="AB22" t="n">
-        <v>1580</v>
+        <v>1780</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -9584,33 +9804,45 @@
         <v>5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
       <c r="AL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO22" t="n">
         <v>828761.61542</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AP22" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AQ22" t="n">
         <v>103665.6825617</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AR22" t="n">
         <v>23382.7</v>
       </c>
-      <c r="AP22" t="n">
-        <v>95470.39999999999</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>0</v>
-      </c>
       <c r="AS22" t="n">
-        <v>1165549.3479817</v>
+        <v>103749.7661542</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>47540.2</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>287351.9353371923</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1508720.849473092</v>
       </c>
     </row>
     <row r="23">
@@ -9647,7 +9879,7 @@
         <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
         <v>85</v>
@@ -9670,35 +9902,35 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,4,2,2,1</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>459277.509289</v>
+        <v>676329.5777708339</v>
       </c>
       <c r="U23" t="n">
-        <v>81753.992703</v>
+        <v>117782.214596685</v>
       </c>
       <c r="V23" t="n">
-        <v>57325.7231162</v>
+        <v>83232.2886216786</v>
       </c>
       <c r="W23" t="n">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="X23" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AA23" t="n">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="AB23" t="n">
-        <v>1830</v>
+        <v>2630</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -9719,33 +9951,45 @@
         <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
       <c r="AL23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO23" t="n">
         <v>904996.0132149999</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AP23" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AQ23" t="n">
         <v>167046.85364285</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AR23" t="n">
         <v>30363.65</v>
       </c>
-      <c r="AP23" t="n">
-        <v>150324</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>0</v>
-      </c>
       <c r="AS23" t="n">
-        <v>1366999.46685785</v>
+        <v>168407.4202643</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>86994.25</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>511931.8809404624</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>1984009.018062613</v>
       </c>
     </row>
     <row r="24">
@@ -9782,7 +10026,7 @@
         <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
         <v>85</v>
@@ -9805,35 +10049,35 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,4,3,3,3</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>529685.18982</v>
+        <v>850765.01254892</v>
       </c>
       <c r="U24" t="n">
-        <v>98257.602749</v>
+        <v>152328.468652867</v>
       </c>
       <c r="V24" t="n">
-        <v>70452.8041198</v>
+        <v>109989.4807095994</v>
       </c>
       <c r="W24" t="n">
-        <v>3020</v>
+        <v>3220</v>
       </c>
       <c r="X24" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y24" t="n">
         <v>15000</v>
       </c>
       <c r="Z24" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AA24" t="n">
-        <v>4140</v>
+        <v>4340</v>
       </c>
       <c r="AB24" t="n">
-        <v>1830</v>
+        <v>2630</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -9854,33 +10098,45 @@
         <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ24" t="inlineStr"/>
       <c r="AK24" t="inlineStr"/>
       <c r="AL24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO24" t="n">
         <v>1025225.806245</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AP24" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AQ24" t="n">
         <v>189115.76623195</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AR24" t="n">
         <v>43173.05</v>
       </c>
-      <c r="AP24" t="n">
-        <v>255711.2</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>0</v>
-      </c>
       <c r="AS24" t="n">
-        <v>1627494.77247695</v>
+        <v>296687.2322498</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>138998.6</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>743930.055607149</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2551399.460333899</v>
       </c>
     </row>
     <row r="25">
@@ -9917,7 +10173,7 @@
         <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L25" t="n">
         <v>85</v>
@@ -9940,35 +10196,35 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,5,5,5</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>674024.0463558</v>
+        <v>1454621.795490326</v>
       </c>
       <c r="U25" t="n">
-        <v>131969.3272175</v>
+        <v>259157.9280086475</v>
       </c>
       <c r="V25" t="n">
-        <v>97135.46963560001</v>
+        <v>193095.4496223948</v>
       </c>
       <c r="W25" t="n">
-        <v>3660</v>
+        <v>3860</v>
       </c>
       <c r="X25" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y25" t="n">
         <v>15000</v>
       </c>
       <c r="Z25" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AA25" t="n">
-        <v>4620</v>
+        <v>4820</v>
       </c>
       <c r="AB25" t="n">
-        <v>1830</v>
+        <v>2630</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -9989,33 +10245,45 @@
         <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ25" t="inlineStr"/>
       <c r="AK25" t="inlineStr"/>
       <c r="AL25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO25" t="n">
         <v>1274892.692</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AP25" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AQ25" t="n">
         <v>234926.16256125</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AR25" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP25" t="n">
-        <v>466485.6</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>0</v>
-      </c>
       <c r="AS25" t="n">
-        <v>2159333.85456125</v>
+        <v>568411.01536</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>203845.05</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>1906598.514157515</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4371702.834078765</v>
       </c>
     </row>
   </sheetData>
